--- a/FMS_writeup/code/model_averaging_process/model_summary_table_model_averaging_5_Oct_2021.xlsx
+++ b/FMS_writeup/code/model_averaging_process/model_summary_table_model_averaging_5_Oct_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\FMS_writeup\code\model_averaging_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D40DBDC-A3B7-4AB7-AEE3-6B47E05B7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FD2BE8-4C4A-413A-B0D6-774A36B77A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,28 +37,7 @@
   </authors>
   <commentList>
     <comment ref="R2" authorId="0" shapeId="0" xr:uid="{F232629D-D7EB-47A2-9407-ED9BA53EC61A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Buckland et al. 1997 (equation 9) or equation 6 in Dormann et al. 2018</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
+      <text/>
     </comment>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{2C67B80A-E254-45D6-9F75-7424CC616365}">
       <text>
@@ -158,7 +137,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>http://www.turkupetcentre.net/reports/tpcmod0016.pdf; should add to one; Turkheimer et al. 2003 and Buckland et al. 1997 equation 1</t>
+          <t xml:space="preserve">http://www.turkupetcentre.net/reports/tpcmod0016.pdf; should add to one; Turkheimer et al. 2003 and Buckland et al. 1997 equation 1; Buckland et al. 1997 (equation 9) or equation 6 in Dormann et al. 2018
+</t>
         </r>
         <r>
           <rPr>
@@ -168,7 +148,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+pg. 162 in Burnham and Anderson 2002</t>
         </r>
       </text>
     </comment>
@@ -196,31 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{5FFE8B8A-3793-4F2B-8F40-7E8649CC6328}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pg. 162 in Burnham and Anderson 2002</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{5C346A86-3B25-4B2D-9031-A062ECE4DE6F}">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{5C346A86-3B25-4B2D-9031-A062ECE4DE6F}">
       <text>
         <r>
           <rPr>
@@ -244,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{31E7BFA2-5966-48AA-9C8F-292B95461F7F}">
+    <comment ref="Y3" authorId="0" shapeId="0" xr:uid="{31E7BFA2-5966-48AA-9C8F-292B95461F7F}">
       <text>
         <r>
           <rPr>
@@ -295,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>terms</t>
   </si>
@@ -420,21 +376,12 @@
     <t>step2</t>
   </si>
   <si>
-    <t>step3</t>
-  </si>
-  <si>
-    <t>var_model_averaged_pred</t>
-  </si>
-  <si>
     <t>fit_LPI_80</t>
   </si>
   <si>
     <t>fit_UPI_80</t>
   </si>
   <si>
-    <t>se_model_averaged_pred</t>
-  </si>
-  <si>
     <t>variance of model averaged prediction</t>
   </si>
   <si>
@@ -514,6 +461,9 @@
   </si>
   <si>
     <t>inv_var weighting</t>
+  </si>
+  <si>
+    <t>step3 (se</t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9534BA-6BDE-42A2-9778-368C24BD5CC2}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N4:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,26 +1458,24 @@
     <col min="18" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="35.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="35.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1536,29 +1484,28 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="K2" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" s="28"/>
       <c r="P2" s="26"/>
       <c r="R2" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="X2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="28"/>
-      <c r="AA2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="28"/>
+      <c r="V2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="28"/>
+      <c r="Y2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="28"/>
     </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1588,10 +1535,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>37</v>
@@ -1600,10 +1547,10 @@
         <v>37</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>38</v>
@@ -1618,31 +1565,25 @@
         <v>40</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -1682,11 +1623,11 @@
         <f>M4+(1.28*J4)</f>
         <v>3.7577785029859117</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="15">
         <f>C4+((H4*H4)/2)</f>
         <v>2.8040068513313052</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="15">
         <f>EXP(M4)</f>
         <v>16.510670210624895</v>
       </c>
@@ -1717,36 +1658,28 @@
         <f>SUM($T$4:$T$21)</f>
         <v>0.58716838341651756</v>
       </c>
-      <c r="V4" s="23">
-        <f>U4^2</f>
-        <v>0.34476671048396657</v>
+      <c r="V4" s="14">
+        <f>Q4-1.28*U4</f>
+        <v>1.9088798524733233</v>
       </c>
       <c r="W4" s="14">
-        <f>SQRT(V4)</f>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="X4" s="14">
-        <f>Q4-1.28*W4</f>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y4" s="14">
-        <f>Q4+1.28*W4</f>
+        <f>Q4+1.28*U4</f>
         <v>3.4120309140196086</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="X4" s="15">
         <f>EXP(Q4)</f>
         <v>14.302800871783429</v>
       </c>
-      <c r="AA4" s="15">
-        <f>EXP(X4)</f>
+      <c r="Y4" s="15">
+        <f>EXP(V4)</f>
         <v>6.7455285778879137</v>
       </c>
-      <c r="AB4" s="15">
-        <f>EXP(Y4)</f>
+      <c r="Z4" s="15">
+        <f>EXP(W4)</f>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1786,11 +1719,11 @@
         <f t="shared" ref="L5:L21" si="2">M5+(1.28*J5)</f>
         <v>3.3863582819045948</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="11">
         <f t="shared" ref="M5:M21" si="3">C5+((H5*H5)/2)</f>
         <v>2.7459973184888402</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="11">
         <f t="shared" ref="N5:N21" si="4">EXP(M5)</f>
         <v>15.580144552630969</v>
       </c>
@@ -1798,7 +1731,7 @@
         <v>4.6784321024388804</v>
       </c>
       <c r="P5" s="11">
-        <f>O5/SUM($O$4:$O$21)</f>
+        <f t="shared" ref="P5:P21" si="5">O5/SUM($O$4:$O$21)</f>
         <v>7.0618038872200556E-2</v>
       </c>
       <c r="Q5" s="5" cm="1">
@@ -1806,7 +1739,7 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R5" s="5">
-        <f>J5*J5</f>
+        <f t="shared" ref="R5:R21" si="6">J5*J5</f>
         <v>0.25028208219406323</v>
       </c>
       <c r="S5" s="5">
@@ -1814,48 +1747,40 @@
         <v>0.25759950487907379</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" ref="T5:T21" si="5">SQRT(S5)*P5</f>
+        <f t="shared" ref="T5:T21" si="7">SQRT(S5)*P5</f>
         <v>3.5841664034532102E-2</v>
       </c>
       <c r="U5" s="24">
-        <f t="shared" ref="U5:U21" si="6">SUM($T$4:$T$21)</f>
+        <f t="shared" ref="U5:U21" si="8">SUM($T$4:$T$21)</f>
         <v>0.58716838341651756</v>
       </c>
-      <c r="V5" s="24">
-        <f t="shared" ref="V5:V21" si="7">U5^2</f>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" ref="W5:W21" si="8">SQRT(V5)</f>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" ref="X5:X21" si="9">Q5-1.28*W5</f>
+      <c r="V5" s="14">
+        <f>Q5-1.28*U5</f>
         <v>1.9088798524733233</v>
       </c>
-      <c r="Y5" s="5">
-        <f t="shared" ref="Y5:Y21" si="10">Q5+1.28*W5</f>
+      <c r="W5" s="14">
+        <f>Q5+1.28*U5</f>
         <v>3.4120309140196086</v>
       </c>
+      <c r="X5" s="11">
+        <f>EXP(Q5)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" ref="Y5:Z21" si="9">EXP(V5)</f>
+        <v>6.7455285778879137</v>
+      </c>
       <c r="Z5" s="11">
-        <f t="shared" ref="Z5:Z10" si="11">EXP(Q5)</f>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA5" s="11">
-        <f t="shared" ref="AA5:AB21" si="12">EXP(X5)</f>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB5" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10">
         <v>2.7495991174469698</v>
@@ -1890,11 +1815,11 @@
         <f t="shared" si="2"/>
         <v>3.4709158486870124</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="11">
         <f t="shared" si="3"/>
         <v>2.7972582193427749</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="11">
         <f t="shared" si="4"/>
         <v>16.399620910388439</v>
       </c>
@@ -1902,7 +1827,7 @@
         <v>3.4674896011506302</v>
       </c>
       <c r="P6" s="11">
-        <f>O6/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.2339610810073815E-2</v>
       </c>
       <c r="Q6" s="5" cm="1">
@@ -1910,56 +1835,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R6" s="5">
-        <f>J6*J6</f>
+        <f t="shared" si="6"/>
         <v>0.27698645115582177</v>
       </c>
       <c r="S6" s="5">
-        <f>R6+((M6-Q6)^2)</f>
+        <f t="shared" ref="S6:S21" si="10">R6+((M6-Q6)^2)</f>
         <v>0.29570146711981532</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8461463544716726E-2</v>
       </c>
       <c r="U6" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V6" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W6" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X6" s="5">
+      <c r="V6" s="14">
+        <f>Q6-1.28*U6</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W6" s="14">
+        <f>Q6+1.28*U6</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X6" s="11">
+        <f>EXP(Q6)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y6" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" si="11"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA6" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB6" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10">
         <v>2.5296472351655499</v>
@@ -1994,11 +1911,11 @@
         <f t="shared" si="2"/>
         <v>3.3900636969538334</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="11">
         <f t="shared" si="3"/>
         <v>2.588166834968991</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="11">
         <f t="shared" si="4"/>
         <v>13.305358315650695</v>
       </c>
@@ -2006,7 +1923,7 @@
         <v>3.7001315659269198</v>
       </c>
       <c r="P7" s="11">
-        <f>O7/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.5851197374152152E-2</v>
       </c>
       <c r="Q7" s="5" cm="1">
@@ -2014,56 +1931,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R7" s="5">
-        <f>J7*J7</f>
+        <f t="shared" si="6"/>
         <v>0.39247960037911217</v>
       </c>
       <c r="S7" s="5">
-        <f>R7+((M7-Q7)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.39770523459117701</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5221929368429029E-2</v>
       </c>
       <c r="U7" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V7" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W7" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X7" s="5">
+      <c r="V7" s="14">
+        <f>Q7-1.28*U7</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W7" s="14">
+        <f>Q7+1.28*U7</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X7" s="11">
+        <f>EXP(Q7)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y7" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z7" s="11">
-        <f t="shared" si="11"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA7" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB7" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10">
         <v>2.6504195770932202</v>
@@ -2098,11 +2007,11 @@
         <f t="shared" si="2"/>
         <v>3.369109679917107</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="11">
         <f t="shared" si="3"/>
         <v>2.6973938025721909</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="11">
         <f t="shared" si="4"/>
         <v>14.841002695994186</v>
       </c>
@@ -2110,7 +2019,7 @@
         <v>4.6784592024509699</v>
       </c>
       <c r="P8" s="11">
-        <f>O8/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>7.0618447930121078E-2</v>
       </c>
       <c r="Q8" s="5" cm="1">
@@ -2118,56 +2027,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R8" s="5">
-        <f>J8*J8</f>
+        <f t="shared" si="6"/>
         <v>0.27539197990554831</v>
       </c>
       <c r="S8" s="5">
-        <f>R8+((M8-Q8)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.27675642672783141</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.715070208843109E-2</v>
       </c>
       <c r="U8" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V8" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W8" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X8" s="5">
+      <c r="V8" s="14">
+        <f>Q8-1.28*U8</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W8" s="14">
+        <f>Q8+1.28*U8</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X8" s="11">
+        <f>EXP(Q8)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y8" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z8" s="11">
-        <f t="shared" si="11"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA8" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB8" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="10">
         <v>2.5393843432496102</v>
@@ -2202,11 +2103,11 @@
         <f t="shared" si="2"/>
         <v>3.3312826425612614</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="11">
         <f t="shared" si="3"/>
         <v>2.5909865728713042</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="11">
         <f t="shared" si="4"/>
         <v>13.342928883480869</v>
       </c>
@@ -2214,7 +2115,7 @@
         <v>4.6209605313109003</v>
       </c>
       <c r="P9" s="11">
-        <f>O9/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>6.9750541053466272E-2</v>
       </c>
       <c r="Q9" s="5" cm="1">
@@ -2222,51 +2123,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R9" s="5">
-        <f>J9*J9</f>
+        <f t="shared" si="6"/>
         <v>0.33449601489160019</v>
       </c>
       <c r="S9" s="5">
-        <f>R9+((M9-Q9)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.33932193050654036</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0630628971523322E-2</v>
       </c>
       <c r="U9" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V9" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W9" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X9" s="5">
+      <c r="V9" s="14">
+        <f>Q9-1.28*U9</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W9" s="14">
+        <f>Q9+1.28*U9</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X9" s="11">
+        <f>EXP(Q9)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y9" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z9" s="11">
-        <f t="shared" si="11"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA9" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB9" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -2306,11 +2199,11 @@
         <f t="shared" si="2"/>
         <v>3.4631515145179197</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
         <v>2.7652988492422335</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="11">
         <f t="shared" si="4"/>
         <v>15.883786138838479</v>
       </c>
@@ -2318,7 +2211,7 @@
         <v>3.23714501330107</v>
       </c>
       <c r="P10" s="11">
-        <f>O10/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>4.886270172972583E-2</v>
       </c>
       <c r="Q10" s="5" cm="1">
@@ -2326,51 +2219,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R10" s="5">
-        <f>J10*J10</f>
+        <f t="shared" si="6"/>
         <v>0.29724019923851258</v>
       </c>
       <c r="S10" s="5">
-        <f>R10+((M10-Q10)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.30823235160051826</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7127925635580641E-2</v>
       </c>
       <c r="U10" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V10" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W10" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X10" s="5">
+      <c r="V10" s="14">
+        <f>Q10-1.28*U10</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W10" s="14">
+        <f>Q10+1.28*U10</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X10" s="11">
+        <f>EXP(Q10)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y10" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" si="11"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA10" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB10" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
@@ -2410,11 +2295,11 @@
         <f t="shared" si="2"/>
         <v>3.4283859097939038</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="11">
         <f t="shared" si="3"/>
         <v>2.6194730520280829</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="11">
         <f t="shared" si="4"/>
         <v>13.728487480084819</v>
       </c>
@@ -2422,7 +2307,7 @@
         <v>3.4477957405731101</v>
       </c>
       <c r="P11" s="11">
-        <f>O11/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.2042344165746109E-2</v>
       </c>
       <c r="Q11" s="5" cm="1">
@@ -2430,56 +2315,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R11" s="5">
-        <f>J11*J11</f>
+        <f t="shared" si="6"/>
         <v>0.39937744840018724</v>
       </c>
       <c r="S11" s="5">
-        <f>R11+((M11-Q11)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.4010569998722805</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2957928012318283E-2</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V11" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W11" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" si="9"/>
+      <c r="V11" s="14">
+        <f>Q11-1.28*U11</f>
         <v>1.9088798524733233</v>
       </c>
-      <c r="Y11" s="5">
-        <f t="shared" si="10"/>
+      <c r="W11" s="14">
+        <f>Q11+1.28*U11</f>
         <v>3.4120309140196086</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="X11" s="11">
         <f>EXP(Q11)</f>
         <v>14.302800871783429</v>
       </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="12"/>
+      <c r="Y11" s="11">
+        <f t="shared" si="9"/>
         <v>6.7455285778879137</v>
       </c>
-      <c r="AB11" s="11">
-        <f t="shared" si="12"/>
+      <c r="Z11" s="11">
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10">
         <v>2.60994658164616</v>
@@ -2514,11 +2391,11 @@
         <f t="shared" si="2"/>
         <v>3.3932404382617554</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="11">
         <f t="shared" si="3"/>
         <v>2.6637303697097079</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="11">
         <f t="shared" si="4"/>
         <v>14.349719137432116</v>
       </c>
@@ -2526,7 +2403,7 @@
         <v>3.5572286328104301</v>
       </c>
       <c r="P12" s="11">
-        <f>O12/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.3694165987395251E-2</v>
       </c>
       <c r="Q12" s="5" cm="1">
@@ -2534,51 +2411,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R12" s="5">
-        <f>J12*J12</f>
+        <f t="shared" si="6"/>
         <v>0.32481990974048663</v>
       </c>
       <c r="S12" s="5">
-        <f>R12+((M12-Q12)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.32483063527682104</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0602407349857971E-2</v>
       </c>
       <c r="U12" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V12" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W12" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X12" s="5">
+      <c r="V12" s="14">
+        <f>Q12-1.28*U12</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W12" s="14">
+        <f>Q12+1.28*U12</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" ref="X12:X21" si="11">EXP(Q12)</f>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y12" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z12" s="11">
-        <f t="shared" ref="Z12:Z21" si="13">EXP(Q12)</f>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB12" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -2618,11 +2487,11 @@
         <f t="shared" si="2"/>
         <v>3.3857654689999479</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="11">
         <f t="shared" si="3"/>
         <v>2.6100841058722679</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="11">
         <f t="shared" si="4"/>
         <v>13.60019465996465</v>
       </c>
@@ -2630,7 +2499,7 @@
         <v>3.9194931835373898</v>
       </c>
       <c r="P13" s="11">
-        <f>O13/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.916232531195198E-2</v>
       </c>
       <c r="Q13" s="5" cm="1">
@@ -2638,51 +2507,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R13" s="5">
-        <f>J13*J13</f>
+        <f t="shared" si="6"/>
         <v>0.36723729071265615</v>
       </c>
       <c r="S13" s="5">
-        <f>R13+((M13-Q13)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.36977455629696454</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5976072308284125E-2</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V13" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W13" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X13" s="5">
+      <c r="V13" s="14">
+        <f>Q13-1.28*U13</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W13" s="14">
+        <f>Q13+1.28*U13</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y13" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA13" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB13" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
@@ -2722,11 +2583,11 @@
         <f t="shared" si="2"/>
         <v>3.4788982793388383</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="11">
         <f t="shared" si="3"/>
         <v>2.7874809647355532</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="11">
         <f t="shared" si="4"/>
         <v>16.240058951339822</v>
       </c>
@@ -2734,7 +2595,7 @@
         <v>3.0735306603852699</v>
       </c>
       <c r="P14" s="11">
-        <f>O14/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>4.6393044271571267E-2</v>
       </c>
       <c r="Q14" s="5" cm="1">
@@ -2742,51 +2603,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R14" s="5">
-        <f>J14*J14</f>
+        <f t="shared" si="6"/>
         <v>0.29178338802076281</v>
       </c>
       <c r="S14" s="5">
-        <f>R14+((M14-Q14)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.30791888637340359</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5743704112854197E-2</v>
       </c>
       <c r="U14" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V14" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W14" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X14" s="5">
+      <c r="V14" s="14">
+        <f>Q14-1.28*U14</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W14" s="14">
+        <f>Q14+1.28*U14</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y14" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB14" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
@@ -2826,11 +2679,11 @@
         <f t="shared" si="2"/>
         <v>3.3735676742472984</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="11">
         <f t="shared" si="3"/>
         <v>2.5757265217662444</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="11">
         <f t="shared" si="4"/>
         <v>13.140860812641563</v>
       </c>
@@ -2838,7 +2691,7 @@
         <v>3.6079473613497002</v>
       </c>
       <c r="P15" s="11">
-        <f>O15/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.4459733824035995E-2</v>
       </c>
       <c r="Q15" s="5" cm="1">
@@ -2846,56 +2699,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R15" s="5">
-        <f>J15*J15</f>
+        <f t="shared" si="6"/>
         <v>0.38851959508807177</v>
       </c>
       <c r="S15" s="5">
-        <f>R15+((M15-Q15)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.39569857505580636</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4257664950636119E-2</v>
       </c>
       <c r="U15" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V15" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W15" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X15" s="5">
+      <c r="V15" s="14">
+        <f>Q15-1.28*U15</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W15" s="14">
+        <f>Q15+1.28*U15</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y15" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z15" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA15" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10">
         <v>2.6128083611622901</v>
@@ -2930,11 +2775,11 @@
         <f t="shared" si="2"/>
         <v>3.3585744059510096</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="11">
         <f t="shared" si="3"/>
         <v>2.6621321297568619</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="11">
         <f t="shared" si="4"/>
         <v>14.326803160487501</v>
       </c>
@@ -2942,7 +2787,7 @@
         <v>4.01487714156114</v>
       </c>
       <c r="P16" s="11">
-        <f>O16/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>6.060208716122497E-2</v>
       </c>
       <c r="Q16" s="5" cm="1">
@@ -2950,51 +2795,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R16" s="5">
-        <f>J16*J16</f>
+        <f t="shared" si="6"/>
         <v>0.29603994389067712</v>
       </c>
       <c r="S16" s="5">
-        <f>R16+((M16-Q16)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.29604275536953722</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2973481201420823E-2</v>
       </c>
       <c r="U16" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V16" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W16" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X16" s="5">
+      <c r="V16" s="14">
+        <f>Q16-1.28*U16</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W16" s="14">
+        <f>Q16+1.28*U16</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y16" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z16" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB16" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -3034,11 +2871,11 @@
         <f t="shared" si="2"/>
         <v>3.337144237021481</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="11">
         <f t="shared" si="3"/>
         <v>2.5771816823032361</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="11">
         <f t="shared" si="4"/>
         <v>13.159996794304204</v>
       </c>
@@ -3046,7 +2883,7 @@
         <v>4.0871761226603098</v>
       </c>
       <c r="P17" s="11">
-        <f>O17/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>6.1693395562392124E-2</v>
       </c>
       <c r="Q17" s="5" cm="1">
@@ -3054,51 +2891,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R17" s="5">
-        <f>J17*J17</f>
+        <f t="shared" si="6"/>
         <v>0.35250432408073823</v>
       </c>
       <c r="S17" s="5">
-        <f>R17+((M17-Q17)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.3594388333495207</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6987175855636018E-2</v>
       </c>
       <c r="U17" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V17" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W17" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X17" s="5">
+      <c r="V17" s="14">
+        <f>Q17-1.28*U17</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W17" s="14">
+        <f>Q17+1.28*U17</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X17" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y17" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y17" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z17" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB17" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -3138,11 +2967,11 @@
         <f t="shared" si="2"/>
         <v>3.4724232278576186</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="11">
         <f t="shared" si="3"/>
         <v>2.7534750429362083</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="11">
         <f t="shared" si="4"/>
         <v>15.697085260733896</v>
       </c>
@@ -3150,7 +2979,7 @@
         <v>2.8796772075716901</v>
       </c>
       <c r="P18" s="11">
-        <f>O18/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>4.3466946304014299E-2</v>
       </c>
       <c r="Q18" s="5" cm="1">
@@ -3158,51 +2987,43 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R18" s="5">
-        <f>J18*J18</f>
+        <f t="shared" si="6"/>
         <v>0.31548247839464744</v>
       </c>
       <c r="S18" s="5">
-        <f>R18+((M18-Q18)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.32413513548344292</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4746978766379657E-2</v>
       </c>
       <c r="U18" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V18" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W18" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X18" s="5">
+      <c r="V18" s="14">
+        <f>Q18-1.28*U18</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W18" s="14">
+        <f>Q18+1.28*U18</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y18" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y18" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z18" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB18" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>29</v>
       </c>
@@ -3242,11 +3063,11 @@
         <f t="shared" si="2"/>
         <v>3.4003811699173667</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="11">
         <f t="shared" si="3"/>
         <v>2.5693049823910297</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="11">
         <f t="shared" si="4"/>
         <v>13.056746617861258</v>
       </c>
@@ -3254,7 +3075,7 @@
         <v>3.46111989940534</v>
       </c>
       <c r="P19" s="11">
-        <f>O19/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.2243464102030596E-2</v>
       </c>
       <c r="Q19" s="5" cm="1">
@@ -3262,56 +3083,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R19" s="5">
-        <f>J19*J19</f>
+        <f t="shared" si="6"/>
         <v>0.42156227384845657</v>
       </c>
       <c r="S19" s="5">
-        <f>R19+((M19-Q19)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.42987066942456326</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4253178108998826E-2</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V19" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W19" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X19" s="5">
+      <c r="V19" s="14">
+        <f>Q19-1.28*U19</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W19" s="14">
+        <f>Q19+1.28*U19</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y19" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB19" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10">
         <v>2.5777637471507902</v>
@@ -3346,11 +3159,11 @@
         <f t="shared" si="2"/>
         <v>3.361065627974221</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="11">
         <f t="shared" si="3"/>
         <v>2.6302278294383044</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="11">
         <f t="shared" si="4"/>
         <v>13.876931115428922</v>
       </c>
@@ -3358,7 +3171,7 @@
         <v>3.83905779520755</v>
       </c>
       <c r="P20" s="11">
-        <f>O20/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.7948202876186357E-2</v>
       </c>
       <c r="Q20" s="5" cm="1">
@@ -3366,56 +3179,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R20" s="5">
-        <f>J20*J20</f>
+        <f t="shared" si="6"/>
         <v>0.32600334946827703</v>
       </c>
       <c r="S20" s="5">
-        <f>R20+((M20-Q20)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.32691705447750236</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.313284742120285E-2</v>
       </c>
       <c r="U20" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V20" s="24">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W20" s="5">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X20" s="5">
+      <c r="V20" s="14">
+        <f>Q20-1.28*U20</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W20" s="14">
+        <f>Q20+1.28*U20</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y20" s="11">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y20" s="5">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB20" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="17">
         <v>2.5082725565817801</v>
@@ -3450,11 +3255,11 @@
         <f t="shared" si="2"/>
         <v>3.3635233460450134</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="19">
         <f t="shared" si="3"/>
         <v>2.5648602077160145</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="19">
         <f t="shared" si="4"/>
         <v>12.998841104966578</v>
       </c>
@@ -3462,7 +3267,7 @@
         <v>3.8343718770531399</v>
       </c>
       <c r="P21" s="11">
-        <f>O21/SUM($O$4:$O$21)</f>
+        <f t="shared" si="5"/>
         <v>5.7877471839989938E-2</v>
       </c>
       <c r="Q21" s="18" cm="1">
@@ -3470,56 +3275,48 @@
         <v>2.6604553832464659</v>
       </c>
       <c r="R21" s="18">
-        <f>J21*J21</f>
+        <f t="shared" si="6"/>
         <v>0.38932056184419289</v>
       </c>
       <c r="S21" s="18">
-        <f>R21+((M21-Q21)^2)</f>
+        <f t="shared" si="10"/>
         <v>0.39845899942889068</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6534348936732609E-2</v>
       </c>
       <c r="U21" s="25">
-        <f t="shared" si="6"/>
-        <v>0.58716838341651756</v>
-      </c>
-      <c r="V21" s="25">
-        <f t="shared" si="7"/>
-        <v>0.34476671048396657</v>
-      </c>
-      <c r="W21" s="18">
         <f t="shared" si="8"/>
         <v>0.58716838341651756</v>
       </c>
-      <c r="X21" s="18">
+      <c r="V21" s="14">
+        <f>Q21-1.28*U21</f>
+        <v>1.9088798524733233</v>
+      </c>
+      <c r="W21" s="14">
+        <f>Q21+1.28*U21</f>
+        <v>3.4120309140196086</v>
+      </c>
+      <c r="X21" s="19">
+        <f t="shared" si="11"/>
+        <v>14.302800871783429</v>
+      </c>
+      <c r="Y21" s="19">
         <f t="shared" si="9"/>
-        <v>1.9088798524733233</v>
-      </c>
-      <c r="Y21" s="18">
-        <f t="shared" si="10"/>
-        <v>3.4120309140196086</v>
+        <v>6.7455285778879137</v>
       </c>
       <c r="Z21" s="19">
-        <f t="shared" si="13"/>
-        <v>14.302800871783429</v>
-      </c>
-      <c r="AA21" s="19">
-        <f t="shared" si="12"/>
-        <v>6.7455285778879137</v>
-      </c>
-      <c r="AB21" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>30.32677282673993</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>10</v>
@@ -3535,9 +3332,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28" s="9">
         <v>0.87545412199999995</v>
@@ -3553,24 +3350,24 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>1</v>
@@ -3583,12 +3380,12 @@
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7">
         <v>2.3352742900000001</v>
@@ -3627,7 +3424,7 @@
         <v>16.510670132929508</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3450,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3669,12 +3466,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
